--- a/data/entrada_saida.xlsx
+++ b/data/entrada_saida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,19 +533,71 @@
           <t>kkkkk</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>kkkkk</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>kkkkk</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>323</t>
         </is>
       </c>
     </row>
